--- a/example_data/EMA/label_corrected/caprelsa-epar-product-information_en.xlsx
+++ b/example_data/EMA/label_corrected/caprelsa-epar-product-information_en.xlsx
@@ -1592,7 +1592,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>populations - adult || populations - pediatric || hepatic</t>
+          <t>hepatic || populations - pediatric || populations - adult</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2246,7 +2246,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>populations - adult || populations - pediatric || renal || warnings</t>
+          <t>populations - pediatric || populations - adult || renal || warnings</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3370,7 +3370,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>populations - pediatric || pregnancy</t>
+          <t>pregnancy || populations - pediatric</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -3757,7 +3757,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>populations - adult || populations - pediatric</t>
+          <t>populations - pediatric || populations - adult</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
